--- a/Tests/integrationTests/Test_cases_template.xlsx
+++ b/Tests/integrationTests/Test_cases_template.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Number</t>
   </si>
@@ -135,13 +135,25 @@
   </si>
   <si>
     <t>Common Requirements</t>
+  </si>
+  <si>
+    <t>Test Execution Infos</t>
+  </si>
+  <si>
+    <t>Name of Tester:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Environment (OS + Version, Architecture, Java Version):</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +180,14 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -217,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -229,6 +249,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,7 +522,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -510,7 +533,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,15 +549,27 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
